--- a/document/MOM SOSIALISASI.xlsx
+++ b/document/MOM SOSIALISASI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DISBUN-APP\disbun-peminjaman-barang-iventaris\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disbun-peminjaman-barang-inventaris\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2CD3F-7F43-4538-ADD9-981B598A8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B397D9-945D-4A0F-8A95-7BE8D0CE6F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25012021" sheetId="9" r:id="rId1"/>
@@ -455,6 +455,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -463,18 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,23 +864,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>70250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418719</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110491</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D95361B-92D5-4C7B-8E8A-F53FF2B52FF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C740A2EA-1BEE-4FA0-93FA-C8309AF93DC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673100" y="971550"/>
-          <a:ext cx="5040000" cy="3150000"/>
+          <a:off x="257175" y="1343026"/>
+          <a:ext cx="5038344" cy="3148965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,23 +908,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>239400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466344</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>114700</xdr:rowOff>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613C44D3-0176-410F-9942-AB2524C936B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C33C6B2-1583-41A3-803E-B9577FE4FC81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,8 +940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4330700"/>
-          <a:ext cx="5040000" cy="3150000"/>
+          <a:off x="304800" y="4600576"/>
+          <a:ext cx="5038344" cy="3148965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,90 +1284,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="39.5" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" ht="39.6" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="53.4" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:6" ht="53.45" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="35" customHeight="1">
+    <row r="7" spans="1:6" ht="35.1" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="43.5">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="58">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="60">
       <c r="A10" s="18">
         <v>4</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.5">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="18">
         <v>5</v>
       </c>
@@ -1470,30 +1470,30 @@
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.62992125984251968" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="28" max="5" man="1"/>
   </rowBreaks>
@@ -1505,11 +1505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD173CB5-A98E-4EE1-AFBA-A09859B8AF53}">
   <dimension ref="A2:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="28" t="s">
@@ -1544,7 +1544,7 @@
     <mergeCell ref="A2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>